--- a/results/region_sale_02_oneway_anova.xlsx
+++ b/results/region_sale_02_oneway_anova.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>163702.0438</v>
+        <v>160454.2875</v>
       </c>
       <c r="E2" t="n">
         <v>0.001</v>
       </c>
       <c r="F2" t="n">
-        <v>151366.291</v>
+        <v>136312.6566</v>
       </c>
       <c r="G2" t="n">
-        <v>176037.7967</v>
+        <v>184595.9183</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-25564.6393</v>
+        <v>-112782.0121</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>-37900.3921</v>
+        <v>-137826.1826</v>
       </c>
       <c r="G3" t="n">
-        <v>-13228.8864</v>
+        <v>-87737.84149999999</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64421.571</v>
+        <v>38520.1181</v>
       </c>
       <c r="E4" t="n">
         <v>0.001</v>
       </c>
       <c r="F4" t="n">
-        <v>52085.8182</v>
+        <v>13780.6305</v>
       </c>
       <c r="G4" t="n">
-        <v>76757.3239</v>
+        <v>63259.6056</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-189266.6831</v>
+        <v>-273236.2995</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-201602.4359</v>
+        <v>-294547.2623</v>
       </c>
       <c r="G5" t="n">
-        <v>-176930.9302</v>
+        <v>-251925.3368</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-99280.4728</v>
+        <v>-121934.1694</v>
       </c>
       <c r="E6" t="n">
         <v>0.001</v>
       </c>
       <c r="F6" t="n">
-        <v>-111616.2256</v>
+        <v>-142886.2313</v>
       </c>
       <c r="G6" t="n">
-        <v>-86944.7199</v>
+        <v>-100982.1075</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89986.21030000001</v>
+        <v>151302.1301</v>
       </c>
       <c r="E7" t="n">
         <v>0.001</v>
       </c>
       <c r="F7" t="n">
-        <v>77650.4574</v>
+        <v>129316.2019</v>
       </c>
       <c r="G7" t="n">
-        <v>102321.9632</v>
+        <v>173288.0583</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
